--- a/results/Preliminaries-Ireland.xlsx
+++ b/results/Preliminaries-Ireland.xlsx
@@ -54,46 +54,46 @@
     <t>2020</t>
   </si>
   <si>
-    <t xml:space="preserve">DL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP </t>
-  </si>
-  <si>
-    <t>Oth</t>
-  </si>
-  <si>
-    <t>PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP </t>
-  </si>
-  <si>
-    <t>ULA</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD </t>
-  </si>
-  <si>
-    <t>Aon</t>
+    <t>DL - Democratic Left (Democratic Left, DL)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)</t>
   </si>
   <si>
     <t>Key</t>
@@ -135,4549 +135,4549 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t xml:space="preserve">DL +FF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP </t>
-  </si>
-  <si>
-    <t>DL +Oth</t>
-  </si>
-  <si>
-    <t>DL +PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP </t>
-  </si>
-  <si>
-    <t>FF +Oth</t>
-  </si>
-  <si>
-    <t>FF +PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP </t>
-  </si>
-  <si>
-    <t>FG +Oth</t>
-  </si>
-  <si>
-    <t>FG +PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP </t>
-  </si>
-  <si>
-    <t>GP +Oth</t>
-  </si>
-  <si>
-    <t>GP +PDs</t>
-  </si>
-  <si>
-    <t>LP +Oth</t>
-  </si>
-  <si>
-    <t>LP +PDs</t>
-  </si>
-  <si>
-    <t>Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP </t>
-  </si>
-  <si>
-    <t>DL +FF +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP </t>
-  </si>
-  <si>
-    <t>DL +FG +Oth</t>
-  </si>
-  <si>
-    <t>DL +FG +PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP </t>
-  </si>
-  <si>
-    <t>DL +GP +Oth</t>
-  </si>
-  <si>
-    <t>DL +GP +PDs</t>
-  </si>
-  <si>
-    <t>DL +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP </t>
-  </si>
-  <si>
-    <t>FF +FG +Oth</t>
-  </si>
-  <si>
-    <t>FF +FG +PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP </t>
-  </si>
-  <si>
-    <t>FF +GP +Oth</t>
-  </si>
-  <si>
-    <t>FF +GP +PDs</t>
-  </si>
-  <si>
-    <t>FF +LP +Oth</t>
-  </si>
-  <si>
-    <t>FF +LP +PDs</t>
-  </si>
-  <si>
-    <t>FF +Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP </t>
-  </si>
-  <si>
-    <t>FG +GP +Oth</t>
-  </si>
-  <si>
-    <t>FG +GP +PDs</t>
-  </si>
-  <si>
-    <t>FG +LP +Oth</t>
-  </si>
-  <si>
-    <t>FG +LP +PDs</t>
-  </si>
-  <si>
-    <t>FG +Oth+PDs</t>
-  </si>
-  <si>
-    <t>GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP </t>
-  </si>
-  <si>
-    <t>DL +FF +FG +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP </t>
-  </si>
-  <si>
-    <t>DL +FF +GP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +GP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP </t>
-  </si>
-  <si>
-    <t>DL +FG +GP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FG +GP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FG +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FG +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FG +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP </t>
-  </si>
-  <si>
-    <t>FF +FG +GP +Oth</t>
-  </si>
-  <si>
-    <t>FF +FG +GP +PDs</t>
-  </si>
-  <si>
-    <t>FF +FG +LP +Oth</t>
-  </si>
-  <si>
-    <t>FF +FG +LP +PDs</t>
-  </si>
-  <si>
-    <t>FF +FG +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FF +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>FF +GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>FF +GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FF +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>FG +GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>FG +GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FG +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP </t>
-  </si>
-  <si>
-    <t>DL +FF +FG +GP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +GP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FG +GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FG +GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FG +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FF +FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>FF +FG +GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>FF +FG +GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FF +FG +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FF +GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FG +GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +GP +LP +PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +GP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FG +GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>FF +FG +GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t>DL +FF +FG +GP +LP +Oth+PDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +Oth+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +Oth+PDs+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +Oth+PDs+SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +Oth+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FG +GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +FF +FG +GP +LP +Oth+PDs+SF +SP </t>
-  </si>
-  <si>
-    <t>FF +ULA</t>
-  </si>
-  <si>
-    <t>FG +ULA</t>
-  </si>
-  <si>
-    <t>LP +ULA</t>
-  </si>
-  <si>
-    <t>SF +ULA</t>
-  </si>
-  <si>
-    <t>FF +FG +ULA</t>
-  </si>
-  <si>
-    <t>FF +LP +ULA</t>
-  </si>
-  <si>
-    <t>FF +SF +ULA</t>
-  </si>
-  <si>
-    <t>FG +LP +ULA</t>
-  </si>
-  <si>
-    <t>FG +SF +ULA</t>
-  </si>
-  <si>
-    <t>LP +SF +ULA</t>
-  </si>
-  <si>
-    <t>FF +FG +LP +ULA</t>
-  </si>
-  <si>
-    <t>FF +FG +SF +ULA</t>
-  </si>
-  <si>
-    <t>FF +LP +SF +ULA</t>
-  </si>
-  <si>
-    <t>FG +LP +SF +ULA</t>
-  </si>
-  <si>
-    <t>FF +FG +LP +SF +ULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP </t>
-  </si>
-  <si>
-    <t>AAA+I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+LP </t>
-  </si>
-  <si>
-    <t>AAA+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+SF </t>
-  </si>
-  <si>
-    <t>FF +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +SD </t>
-  </si>
-  <si>
-    <t>FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +SD </t>
-  </si>
-  <si>
-    <t>GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+LP </t>
-  </si>
-  <si>
-    <t>I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP </t>
-  </si>
-  <si>
-    <t>AAA+FF +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP </t>
-  </si>
-  <si>
-    <t>AAA+FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +LP </t>
-  </si>
-  <si>
-    <t>AAA+FG +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +SF </t>
-  </si>
-  <si>
-    <t>AAA+GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+SD +SF </t>
-  </si>
-  <si>
-    <t>FF +FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +SD </t>
-  </si>
-  <si>
-    <t>FF +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+LP </t>
-  </si>
-  <si>
-    <t>FF +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +SD +SF </t>
-  </si>
-  <si>
-    <t>FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +SD +SF </t>
-  </si>
-  <si>
-    <t>I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+FG +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+FG +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>FF +FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>FF +FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>FF +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>FF +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>FF +FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>FF +FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>FF +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>FF +FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+FF +FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF +FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+FF +FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP </t>
-  </si>
-  <si>
-    <t>Aon+I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+LP </t>
-  </si>
-  <si>
-    <t>Aon+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP </t>
-  </si>
-  <si>
-    <t>Aon+FF +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP </t>
-  </si>
-  <si>
-    <t>Aon+FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +LP </t>
-  </si>
-  <si>
-    <t>Aon+FG +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +SF </t>
-  </si>
-  <si>
-    <t>Aon+GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +LP </t>
-  </si>
-  <si>
-    <t>Aon+GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +LP </t>
-  </si>
-  <si>
-    <t>Aon+FG +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+FG +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +GP +I4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +GP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+LP </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +GP +I4C+Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +GP +LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>Aon+FF +FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>AAA+Aon+FF +FG +GP +I4C+LP +Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+LP +SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+LP +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+LP +Oth+SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+LP +Oth+SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+LP +SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aon+FF +FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA+Aon+FF +FG +GP +I4C+LP +Oth+SD +SF </t>
-  </si>
-  <si>
-    <t>('FF +Oth+PDs', 'DL +FG +GP +LP ')</t>
-  </si>
-  <si>
-    <t>('FG +LP +Oth', 'DL +FF +GP +PDs')</t>
-  </si>
-  <si>
-    <t>('DL +FF +GP +PDs', 'FG +LP +Oth')</t>
-  </si>
-  <si>
-    <t>('DL +FG +GP +LP ', 'FF +Oth+PDs')</t>
-  </si>
-  <si>
-    <t>('FF +Oth', 'DL +FG +GP +LP +PDs+SF +SP ')</t>
-  </si>
-  <si>
-    <t>('DL +FF +GP ', 'FG +LP +Oth+PDs+SF +SP ')</t>
-  </si>
-  <si>
-    <t>('FF +GP +PDs', 'DL +FG +LP +Oth+SF +SP ')</t>
-  </si>
-  <si>
-    <t>('DL +FF +SF +SP ', 'FG +GP +LP +Oth+PDs')</t>
-  </si>
-  <si>
-    <t>('FF +PDs+SF +SP ', 'DL +FG +GP +LP +Oth')</t>
-  </si>
-  <si>
-    <t>('DL +FG +GP +LP +Oth', 'FF +PDs+SF +SP ')</t>
-  </si>
-  <si>
-    <t>('FG +GP +LP +Oth+PDs', 'DL +FF +SF +SP ')</t>
-  </si>
-  <si>
-    <t>('DL +FG +LP +Oth+SF +SP ', 'FF +GP +PDs')</t>
-  </si>
-  <si>
-    <t>('FG +LP +Oth+PDs+SF +SP ', 'DL +FF +GP ')</t>
-  </si>
-  <si>
-    <t>('DL +FG +GP +LP +PDs+SF +SP ', 'FF +Oth')</t>
-  </si>
-  <si>
-    <t>('FF +Oth', 'FG +GP +LP +PDs+SF ')</t>
-  </si>
-  <si>
-    <t>('FG +GP +LP +PDs+SF ', 'FF +Oth')</t>
-  </si>
-  <si>
-    <t>('FG ', 'FF +LP +SF +ULA')</t>
-  </si>
-  <si>
-    <t>('FF +LP +SF +ULA', 'FG ')</t>
-  </si>
-  <si>
-    <t>('AAA+FG +SF ', 'FF +GP +I4C+LP +Oth+SD ')</t>
-  </si>
-  <si>
-    <t>('AAA+FG +I4C+Oth', 'FF +GP +LP +SD +SF ')</t>
-  </si>
-  <si>
-    <t>('FG +GP +I4C+SF ', 'AAA+FF +LP +Oth+SD ')</t>
-  </si>
-  <si>
-    <t>('FG +LP +Oth+SD ', 'AAA+FF +GP +I4C+SF ')</t>
-  </si>
-  <si>
-    <t>('AAA+FF +GP +I4C+SF ', 'FG +LP +Oth+SD ')</t>
-  </si>
-  <si>
-    <t>('AAA+FF +LP +Oth+SD ', 'FG +GP +I4C+SF ')</t>
-  </si>
-  <si>
-    <t>('FF +GP +LP +SD +SF ', 'AAA+FG +I4C+Oth')</t>
-  </si>
-  <si>
-    <t>('FF +GP +I4C+LP +Oth+SD ', 'AAA+FG +SF ')</t>
-  </si>
-  <si>
-    <t>('AAA+FF +SF ', 'Aon+FG +GP +I4C+LP +Oth+SD ')</t>
-  </si>
-  <si>
-    <t>('Aon+FF +FG +LP ', 'AAA+GP +I4C+Oth+SD +SF ')</t>
-  </si>
-  <si>
-    <t>('Aon+FF +FG +SD ', 'AAA+GP +I4C+LP +Oth+SF ')</t>
-  </si>
-  <si>
-    <t>('FF +FG +I4C+LP ', 'AAA+Aon+GP +Oth+SD +SF ')</t>
-  </si>
-  <si>
-    <t>('FF +FG +I4C+SD ', 'AAA+Aon+GP +LP +Oth+SF ')</t>
-  </si>
-  <si>
-    <t>('AAA+Aon+FF +FG +I4C', 'GP +LP +Oth+SD +SF ')</t>
-  </si>
-  <si>
-    <t>('AAA+FF +GP +LP +Oth', 'Aon+FG +I4C+SD +SF ')</t>
-  </si>
-  <si>
-    <t>('AAA+FF +GP +Oth+SD ', 'Aon+FG +I4C+LP +SF ')</t>
-  </si>
-  <si>
-    <t>('Aon+FG +I4C+LP +SF ', 'AAA+FF +GP +Oth+SD ')</t>
-  </si>
-  <si>
-    <t>('Aon+FG +I4C+SD +SF ', 'AAA+FF +GP +LP +Oth')</t>
-  </si>
-  <si>
-    <t>('GP +LP +Oth+SD +SF ', 'AAA+Aon+FF +FG +I4C')</t>
-  </si>
-  <si>
-    <t>('AAA+Aon+GP +LP +Oth+SF ', 'FF +FG +I4C+SD ')</t>
-  </si>
-  <si>
-    <t>('AAA+Aon+GP +Oth+SD +SF ', 'FF +FG +I4C+LP ')</t>
-  </si>
-  <si>
-    <t>('AAA+GP +I4C+LP +Oth+SF ', 'Aon+FF +FG +SD ')</t>
-  </si>
-  <si>
-    <t>('AAA+GP +I4C+Oth+SD +SF ', 'Aon+FF +FG +LP ')</t>
-  </si>
-  <si>
-    <t>('Aon+FG +GP +I4C+LP +Oth+SD ', 'AAA+FF +SF ')</t>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)', 'DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)')</t>
+  </si>
+  <si>
+    <t>('FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)', 'DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)')</t>
+  </si>
+  <si>
+    <t>('DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)', 'FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)')</t>
+  </si>
+  <si>
+    <t>('DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)', 'DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)')</t>
+  </si>
+  <si>
+    <t>('DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)', 'FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)', 'DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)')</t>
+  </si>
+  <si>
+    <t>('DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)', 'FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)', 'DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)')</t>
+  </si>
+  <si>
+    <t>('DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)')</t>
+  </si>
+  <si>
+    <t>('FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)', 'DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)')</t>
+  </si>
+  <si>
+    <t>('DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+PDs - Progressive Democrats (Progressive Democrats , PDs)')</t>
+  </si>
+  <si>
+    <t>('FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)', 'DL - Democratic Left (Democratic Left, DL)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)')</t>
+  </si>
+  <si>
+    <t>('DL - Democratic Left (Democratic Left, DL)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)+SP - Socialist Party (Socialist Party, SP)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)', 'FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+PDs - Progressive Democrats (Progressive Democrats , PDs)+SF - Sinn Féin (Sinn Féin, SF)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+Others - Others and independents (Others, Others)')</t>
+  </si>
+  <si>
+    <t>('FG - Fine Gael (Fine Gael, FG)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)+ULA - United Left Alliance (United Left Alliance, ULA)', 'FG - Fine Gael (Fine Gael, FG)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)')</t>
+  </si>
+  <si>
+    <t>('FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)', 'FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)', 'FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FG - Fine Gael (Fine Gael, FG)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)', 'Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)')</t>
+  </si>
+  <si>
+    <t>('Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)', 'GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)', 'Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)', 'Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)')</t>
+  </si>
+  <si>
+    <t>('Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+SF - Sinn Féin (Sinn Féin, SF)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)')</t>
+  </si>
+  <si>
+    <t>('Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)')</t>
+  </si>
+  <si>
+    <t>('GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+Aontú - Unite (Aontú, Aontú)+GP - Green Party (Green Party, GP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)', 'FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SF - Sinn Féin (Sinn Féin, SF)', 'Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)')</t>
+  </si>
+  <si>
+    <t>('AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)+SF - Sinn Féin (Sinn Féin, SF)', 'Aontú - Unite (Aontú, Aontú)+FF - Fianna Fáil  (Fianna Fáil, FF)+FG - Fine Gael (Fine Gael, FG)+LP - Labour Party (Labour Party, LP)')</t>
+  </si>
+  <si>
+    <t>('Aontú - Unite (Aontú, Aontú)+FG - Fine Gael (Fine Gael, FG)+GP - Green Party (Green Party, GP)+I4C - Independents 4 Change (Neamhspleáigh ar son an Athraithe, I4C)+LP - Labour Party (Labour Party, LP)+Others - Others and independents (Others, Others)+SD - Social Democrats (Daonlathaigh Shóisialta, SD)', 'AAA-PBP - Anti-Austerity Party-People Before Profits (, AAA-PBP)+FF - Fianna Fáil  (Fianna Fáil, FF)+SF - Sinn Féin (Sinn Féin, SF)')</t>
   </si>
 </sst>
 </file>
